--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H2">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I2">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J2">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>7854.766795928996</v>
+        <v>14727.52850889615</v>
       </c>
       <c r="R2">
-        <v>7854.766795928996</v>
+        <v>132547.7565800654</v>
       </c>
       <c r="S2">
-        <v>0.003403809428981409</v>
+        <v>0.006238303121080187</v>
       </c>
       <c r="T2">
-        <v>0.003403809428981409</v>
+        <v>0.006238303121080188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H3">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I3">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J3">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>8360.940250780084</v>
+        <v>15523.36060701553</v>
       </c>
       <c r="R3">
-        <v>8360.940250780084</v>
+        <v>139710.2454631398</v>
       </c>
       <c r="S3">
-        <v>0.003623156231131561</v>
+        <v>0.006575402577961566</v>
       </c>
       <c r="T3">
-        <v>0.003623156231131561</v>
+        <v>0.006575402577961568</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H4">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I4">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J4">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>5391.343102078</v>
+        <v>10029.4741113823</v>
       </c>
       <c r="R4">
-        <v>5391.343102078</v>
+        <v>90265.26700244073</v>
       </c>
       <c r="S4">
-        <v>0.00233630163218061</v>
+        <v>0.004248295945516973</v>
       </c>
       <c r="T4">
-        <v>0.00233630163218061</v>
+        <v>0.004248295945516975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H5">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I5">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J5">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>4180.331361786536</v>
+        <v>7822.73919214085</v>
       </c>
       <c r="R5">
-        <v>4180.331361786536</v>
+        <v>70404.65272926765</v>
       </c>
       <c r="S5">
-        <v>0.001811517983307971</v>
+        <v>0.003313564681830397</v>
       </c>
       <c r="T5">
-        <v>0.001811517983307971</v>
+        <v>0.003313564681830397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H6">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I6">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J6">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>2763.609066478726</v>
+        <v>5373.702708211578</v>
       </c>
       <c r="R6">
-        <v>2763.609066478726</v>
+        <v>48363.32437390421</v>
       </c>
       <c r="S6">
-        <v>0.001197591073407067</v>
+        <v>0.002276199048342968</v>
       </c>
       <c r="T6">
-        <v>0.001197591073407067</v>
+        <v>0.002276199048342968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H7">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J7">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>623203.8437848083</v>
+        <v>631530.1746655093</v>
       </c>
       <c r="R7">
-        <v>623203.8437848083</v>
+        <v>5683771.571989584</v>
       </c>
       <c r="S7">
-        <v>0.2700611201788457</v>
+        <v>0.2675042630060029</v>
       </c>
       <c r="T7">
-        <v>0.2700611201788457</v>
+        <v>0.267504263006003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H8">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J8">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>663364.0739839437</v>
+        <v>665656.1981613158</v>
       </c>
       <c r="R8">
-        <v>663364.0739839437</v>
+        <v>5990905.783451842</v>
       </c>
       <c r="S8">
-        <v>0.2874642810585206</v>
+        <v>0.2819594024922616</v>
       </c>
       <c r="T8">
-        <v>0.2874642810585206</v>
+        <v>0.2819594024922617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H9">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J9">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>427753.7235248166</v>
+        <v>430073.2151724217</v>
       </c>
       <c r="R9">
-        <v>427753.7235248166</v>
+        <v>3870658.936551795</v>
       </c>
       <c r="S9">
-        <v>0.1853641483245939</v>
+        <v>0.1821708970980765</v>
       </c>
       <c r="T9">
-        <v>0.1853641483245939</v>
+        <v>0.1821708970980766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H10">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I10">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J10">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>331671.027370257</v>
+        <v>335446.3612405336</v>
       </c>
       <c r="R10">
-        <v>331671.027370257</v>
+        <v>3019017.251164802</v>
       </c>
       <c r="S10">
-        <v>0.1437273695850456</v>
+        <v>0.1420887476821226</v>
       </c>
       <c r="T10">
-        <v>0.1437273695850456</v>
+        <v>0.1420887476821227</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H11">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I11">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J11">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>219267.0817217292</v>
+        <v>230429.3899595878</v>
       </c>
       <c r="R11">
-        <v>219267.0817217292</v>
+        <v>2073864.509636291</v>
       </c>
       <c r="S11">
-        <v>0.0950178890882511</v>
+        <v>0.09760554065165698</v>
       </c>
       <c r="T11">
-        <v>0.0950178890882511</v>
+        <v>0.097605540651657</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H12">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I12">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J12">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>20.90169424722686</v>
+        <v>21.97364095408711</v>
       </c>
       <c r="R12">
-        <v>20.90169424722686</v>
+        <v>197.762768586784</v>
       </c>
       <c r="S12">
-        <v>9.057606140168389E-06</v>
+        <v>9.307619595682673E-06</v>
       </c>
       <c r="T12">
-        <v>9.057606140168389E-06</v>
+        <v>9.307619595682675E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H13">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I13">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J13">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>22.24863210855755</v>
+        <v>23.161031545336</v>
       </c>
       <c r="R13">
-        <v>22.24863210855755</v>
+        <v>208.449283908024</v>
       </c>
       <c r="S13">
-        <v>9.641292443245604E-06</v>
+        <v>9.810575840300012E-06</v>
       </c>
       <c r="T13">
-        <v>9.641292443245604E-06</v>
+        <v>9.810575840300013E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H14">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I14">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J14">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>14.34647368015235</v>
+        <v>14.96409006770578</v>
       </c>
       <c r="R14">
-        <v>14.34647368015235</v>
+        <v>134.676810609352</v>
       </c>
       <c r="S14">
-        <v>6.216946174703162E-06</v>
+        <v>6.338506132723197E-06</v>
       </c>
       <c r="T14">
-        <v>6.216946174703162E-06</v>
+        <v>6.338506132723199E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H15">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I15">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J15">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>11.12394680150674</v>
+        <v>11.67161633275644</v>
       </c>
       <c r="R15">
-        <v>11.12394680150674</v>
+        <v>105.044546994808</v>
       </c>
       <c r="S15">
-        <v>4.820486208461394E-06</v>
+        <v>4.943876398046254E-06</v>
       </c>
       <c r="T15">
-        <v>4.820486208461394E-06</v>
+        <v>4.943876398046255E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H16">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I16">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J16">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N16">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P16">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q16">
-        <v>7.354019950832993</v>
+        <v>8.017625892417778</v>
       </c>
       <c r="R16">
-        <v>7.354019950832993</v>
+        <v>72.15863303175999</v>
       </c>
       <c r="S16">
-        <v>3.186814211026134E-06</v>
+        <v>3.396115009936038E-06</v>
       </c>
       <c r="T16">
-        <v>3.186814211026134E-06</v>
+        <v>3.396115009936039E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H17">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I17">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J17">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N17">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P17">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q17">
-        <v>3783.716449737188</v>
+        <v>41.52734591163866</v>
       </c>
       <c r="R17">
-        <v>3783.716449737188</v>
+        <v>373.7461132047479</v>
       </c>
       <c r="S17">
-        <v>0.001639647625806347</v>
+        <v>1.759019997511917E-05</v>
       </c>
       <c r="T17">
-        <v>0.001639647625806347</v>
+        <v>1.759019997511918E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H18">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I18">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J18">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N18">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P18">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q18">
-        <v>4027.545054366544</v>
+        <v>43.77136090751699</v>
       </c>
       <c r="R18">
-        <v>4027.545054366544</v>
+        <v>393.942248167653</v>
       </c>
       <c r="S18">
-        <v>0.001745309082735014</v>
+        <v>1.854072237567556E-05</v>
       </c>
       <c r="T18">
-        <v>0.001745309082735014</v>
+        <v>1.854072237567556E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H19">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I19">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J19">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N19">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P19">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q19">
-        <v>2597.061645685305</v>
+        <v>28.28019925295766</v>
       </c>
       <c r="R19">
-        <v>2597.061645685305</v>
+        <v>254.521793276619</v>
       </c>
       <c r="S19">
-        <v>0.001125418888541821</v>
+        <v>1.197895866627783E-05</v>
       </c>
       <c r="T19">
-        <v>0.001125418888541821</v>
+        <v>1.197895866627783E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H20">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I20">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J20">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N20">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P20">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q20">
-        <v>2013.705683425482</v>
+        <v>22.05784875665566</v>
       </c>
       <c r="R20">
-        <v>2013.705683425482</v>
+        <v>198.520638809901</v>
       </c>
       <c r="S20">
-        <v>0.0008726255750825815</v>
+        <v>9.343288431581747E-06</v>
       </c>
       <c r="T20">
-        <v>0.0008726255750825815</v>
+        <v>9.343288431581748E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.253661</v>
+      </c>
+      <c r="H21">
+        <v>0.760983</v>
+      </c>
+      <c r="I21">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J21">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N21">
+        <v>179.20309</v>
+      </c>
+      <c r="O21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q21">
+        <v>15.15227833749666</v>
+      </c>
+      <c r="R21">
+        <v>136.37050503747</v>
+      </c>
+      <c r="S21">
+        <v>6.418219132095633E-06</v>
+      </c>
+      <c r="T21">
+        <v>6.418219132095634E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H22">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I22">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J22">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N22">
+        <v>491.135956</v>
+      </c>
+      <c r="O22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q22">
+        <v>3850.129739468366</v>
+      </c>
+      <c r="R22">
+        <v>34651.16765521529</v>
+      </c>
+      <c r="S22">
+        <v>0.001630842293449368</v>
+      </c>
+      <c r="T22">
+        <v>0.001630842293449369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H23">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I23">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J23">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.558497</v>
+      </c>
+      <c r="N23">
+        <v>517.675491</v>
+      </c>
+      <c r="O23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q23">
+        <v>4058.179367533393</v>
+      </c>
+      <c r="R23">
+        <v>36523.61430780054</v>
+      </c>
+      <c r="S23">
+        <v>0.001718968189339752</v>
+      </c>
+      <c r="T23">
+        <v>0.001718968189339752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H24">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I24">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J24">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N24">
+        <v>334.464493</v>
+      </c>
+      <c r="O24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q24">
+        <v>2621.945462481084</v>
+      </c>
+      <c r="R24">
+        <v>23597.50916232976</v>
+      </c>
+      <c r="S24">
+        <v>0.001110606613459798</v>
+      </c>
+      <c r="T24">
+        <v>0.001110606613459798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="H21">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="I21">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="J21">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="N21">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="O21">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="P21">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="Q21">
-        <v>1331.256975178174</v>
-      </c>
-      <c r="R21">
-        <v>1331.256975178174</v>
-      </c>
-      <c r="S21">
-        <v>0.0005768910983910131</v>
-      </c>
-      <c r="T21">
-        <v>0.0005768910983910131</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H25">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I25">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J25">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N25">
+        <v>260.873947</v>
+      </c>
+      <c r="O25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q25">
+        <v>2045.051944022592</v>
+      </c>
+      <c r="R25">
+        <v>18405.46749620333</v>
+      </c>
+      <c r="S25">
+        <v>0.0008662454068556712</v>
+      </c>
+      <c r="T25">
+        <v>0.0008662454068556714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H26">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I26">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J26">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N26">
+        <v>179.20309</v>
+      </c>
+      <c r="O26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q26">
+        <v>1404.814975944514</v>
+      </c>
+      <c r="R26">
+        <v>12643.33478350063</v>
+      </c>
+      <c r="S26">
+        <v>0.0005950531104849786</v>
+      </c>
+      <c r="T26">
+        <v>0.0005950531104849787</v>
       </c>
     </row>
   </sheetData>
